--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,207 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3300</v>
       </c>
       <c r="H9" s="3">
         <v>3300</v>
       </c>
       <c r="I9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>700</v>
       </c>
       <c r="G10" s="3">
         <v>700</v>
       </c>
       <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>700</v>
       </c>
       <c r="K10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>400</v>
@@ -864,19 +874,22 @@
         <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,64 +1124,68 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3900</v>
       </c>
       <c r="H17" s="3">
         <v>3900</v>
       </c>
       <c r="I17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1400</v>
       </c>
       <c r="P17" s="3">
         <v>1400</v>
       </c>
       <c r="Q17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
@@ -1163,17 +1193,17 @@
         <v>100</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1181,19 +1211,22 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1258,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>300</v>
       </c>
       <c r="G21" s="3">
         <v>300</v>
       </c>
       <c r="H21" s="3">
+        <v>300</v>
+      </c>
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>200</v>
       </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -2062,46 +2149,49 @@
         <v>1800</v>
       </c>
       <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2159,90 +2252,96 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2259,19 +2358,19 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2280,63 +2379,69 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2391,34 +2499,34 @@
         <v>2400</v>
       </c>
       <c r="E48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2100</v>
       </c>
       <c r="O48" s="3">
         <v>2100</v>
@@ -2427,10 +2535,13 @@
         <v>2100</v>
       </c>
       <c r="Q48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2467,17 +2578,20 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2603,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>7500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2817,19 +2951,19 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -2843,102 +2977,111 @@
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3800</v>
       </c>
       <c r="G60" s="3">
         <v>3800</v>
       </c>
       <c r="H60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2958,7 +3101,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -2970,10 +3113,10 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>400</v>
       </c>
       <c r="O61" s="3">
         <v>400</v>
@@ -2982,10 +3125,13 @@
         <v>400</v>
       </c>
       <c r="Q61" s="3">
+        <v>400</v>
+      </c>
+      <c r="R61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2999,10 +3145,10 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>42</v>
@@ -3010,8 +3156,8 @@
       <c r="J62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3441,40 +3615,43 @@
         <v>-9200</v>
       </c>
       <c r="G72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-10500</v>
       </c>
       <c r="M72" s="3">
         <v>-10500</v>
       </c>
       <c r="N72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-10500</v>
       </c>
       <c r="P72" s="3">
         <v>-10500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1900</v>
       </c>
       <c r="N76" s="3">
         <v>1900</v>
       </c>
       <c r="O76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="P76" s="3">
         <v>1800</v>
       </c>
       <c r="Q76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4334,49 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,38 +4394,39 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4213,16 +4434,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,38 +4542,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4354,16 +4584,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4581,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
@@ -4608,16 +4854,19 @@
         <v>-100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,210 +665,220 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3300</v>
       </c>
       <c r="I9" s="3">
         <v>3300</v>
       </c>
       <c r="J9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
+        <v>700</v>
+      </c>
+      <c r="J10" s="3">
         <v>1000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>700</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
       </c>
       <c r="L10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
@@ -877,19 +887,22 @@
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3900</v>
       </c>
       <c r="I17" s="3">
         <v>3900</v>
       </c>
       <c r="J17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1400</v>
       </c>
       <c r="Q17" s="3">
         <v>1400</v>
       </c>
       <c r="R17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1184,11 +1214,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
@@ -1196,17 +1226,17 @@
         <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1214,19 +1244,22 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>300</v>
       </c>
       <c r="H21" s="3">
         <v>300</v>
       </c>
       <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>200</v>
       </c>
       <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>200</v>
       </c>
       <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E41" s="3">
         <v>1800</v>
       </c>
       <c r="F41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,13 +2330,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2255,98 +2348,104 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2361,19 +2460,19 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2382,66 +2481,72 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2490,46 +2595,49 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E48" s="3">
         <v>2400</v>
       </c>
       <c r="F48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2100</v>
       </c>
       <c r="P48" s="3">
         <v>2100</v>
@@ -2538,10 +2646,13 @@
         <v>2100</v>
       </c>
       <c r="R48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2581,17 +2692,20 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2726,7 +2846,7 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,63 +3010,67 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2954,19 +3088,19 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -2980,113 +3114,122 @@
       <c r="R58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3800</v>
       </c>
       <c r="H60" s="3">
         <v>3800</v>
       </c>
       <c r="I60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3104,7 +3247,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -3116,10 +3259,10 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>400</v>
       </c>
       <c r="P61" s="3">
         <v>400</v>
@@ -3128,15 +3271,18 @@
         <v>400</v>
       </c>
       <c r="R61" s="3">
+        <v>400</v>
+      </c>
+      <c r="S61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3148,10 +3294,10 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>42</v>
@@ -3159,8 +3305,8 @@
       <c r="K62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,13 +3771,16 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="E72" s="3">
         <v>-9200</v>
@@ -3618,40 +3792,43 @@
         <v>-9200</v>
       </c>
       <c r="H72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-10500</v>
       </c>
       <c r="N72" s="3">
         <v>-10500</v>
       </c>
       <c r="O72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="P72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-10500</v>
       </c>
       <c r="Q72" s="3">
         <v>-10500</v>
       </c>
       <c r="R72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1900</v>
       </c>
       <c r="O76" s="3">
         <v>1900</v>
       </c>
       <c r="P76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="Q76" s="3">
         <v>1800</v>
       </c>
       <c r="R76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,41 +4615,42 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4437,16 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,41 +4772,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4587,16 +4817,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4830,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
@@ -4857,16 +5103,19 @@
         <v>-100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,223 +665,233 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3300</v>
       </c>
       <c r="J9" s="3">
         <v>3300</v>
       </c>
       <c r="K9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>700</v>
       </c>
       <c r="J10" s="3">
+        <v>700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>700</v>
       </c>
       <c r="M10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
@@ -890,19 +900,22 @@
         <v>400</v>
       </c>
       <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,76 +1178,80 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3900</v>
       </c>
       <c r="J17" s="3">
         <v>3900</v>
       </c>
       <c r="K17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1400</v>
       </c>
       <c r="R17" s="3">
         <v>1400</v>
       </c>
       <c r="S17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
@@ -1229,17 +1259,17 @@
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1247,19 +1277,22 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>300</v>
       </c>
       <c r="I21" s="3">
         <v>300</v>
       </c>
       <c r="J21" s="3">
+        <v>300</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
         <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>200</v>
       </c>
       <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>200</v>
       </c>
       <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1800</v>
       </c>
       <c r="F41" s="3">
         <v>1800</v>
       </c>
       <c r="G41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2342,7 +2435,7 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
@@ -2351,105 +2444,111 @@
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -2463,19 +2562,19 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2484,69 +2583,75 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2598,49 +2703,52 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2400</v>
       </c>
       <c r="F48" s="3">
         <v>2400</v>
       </c>
       <c r="G48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2100</v>
       </c>
       <c r="Q48" s="3">
         <v>2100</v>
@@ -2649,10 +2757,13 @@
         <v>2100</v>
       </c>
       <c r="S48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2695,17 +2806,20 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2849,7 +2969,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,61 +3151,64 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
@@ -3091,19 +3225,19 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
       <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -3117,123 +3251,132 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3800</v>
       </c>
       <c r="I60" s="3">
         <v>3800</v>
       </c>
       <c r="J60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
@@ -3250,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -3262,10 +3405,10 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
+        <v>200</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>400</v>
       </c>
       <c r="Q61" s="3">
         <v>400</v>
@@ -3274,10 +3417,13 @@
         <v>400</v>
       </c>
       <c r="S61" s="3">
+        <v>400</v>
+      </c>
+      <c r="T61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,7 +3431,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -3297,10 +3443,10 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>42</v>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,7 +3957,7 @@
         <v>-9100</v>
       </c>
       <c r="E72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="F72" s="3">
         <v>-9200</v>
@@ -3795,40 +3969,43 @@
         <v>-9200</v>
       </c>
       <c r="I72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-10500</v>
       </c>
       <c r="O72" s="3">
         <v>-10500</v>
       </c>
       <c r="P72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-10500</v>
       </c>
       <c r="R72" s="3">
         <v>-10500</v>
       </c>
       <c r="S72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1900</v>
       </c>
       <c r="P76" s="3">
         <v>1900</v>
       </c>
       <c r="Q76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="R76" s="3">
         <v>1800</v>
       </c>
       <c r="S76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>200</v>
       </c>
       <c r="F89" s="3">
         <v>200</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,44 +4836,45 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4661,16 +4882,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,44 +5002,47 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4820,16 +5050,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,17 +5304,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5079,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -5106,16 +5352,19 @@
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,236 +665,245 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3300</v>
       </c>
       <c r="K9" s="3">
         <v>3300</v>
       </c>
       <c r="L9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>700</v>
       </c>
       <c r="K10" s="3">
+        <v>700</v>
+      </c>
+      <c r="L10" s="3">
         <v>1000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
@@ -903,19 +912,22 @@
         <v>400</v>
       </c>
       <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,82 +1204,86 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3900</v>
       </c>
       <c r="K17" s="3">
         <v>3900</v>
       </c>
       <c r="L17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1400</v>
       </c>
       <c r="S17" s="3">
         <v>1400</v>
       </c>
       <c r="T17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
@@ -1262,17 +1291,17 @@
         <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1280,19 +1309,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1369,64 +1402,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>300</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
       </c>
       <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,69 +1520,75 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
       </c>
       <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1800</v>
       </c>
       <c r="G41" s="3">
         <v>1800</v>
       </c>
       <c r="H41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2426,19 +2515,22 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
@@ -2447,43 +2539,46 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2491,55 +2586,58 @@
         <v>1200</v>
       </c>
       <c r="E44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2547,11 +2645,11 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -2565,19 +2663,19 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2586,72 +2684,78 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E46" s="3">
         <v>4200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2706,52 +2810,55 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2400</v>
       </c>
       <c r="G48" s="3">
         <v>2400</v>
       </c>
       <c r="H48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2100</v>
       </c>
       <c r="R48" s="3">
         <v>2100</v>
@@ -2760,10 +2867,13 @@
         <v>2100</v>
       </c>
       <c r="T48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2809,17 +2919,20 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2972,7 +3091,7 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,11 +3340,11 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
@@ -3228,19 +3361,19 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
@@ -3254,132 +3387,141 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3800</v>
       </c>
       <c r="J60" s="3">
         <v>3800</v>
       </c>
       <c r="K60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
@@ -3396,7 +3538,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
@@ -3408,10 +3550,10 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>400</v>
       </c>
       <c r="R61" s="3">
         <v>400</v>
@@ -3420,10 +3562,13 @@
         <v>400</v>
       </c>
       <c r="T61" s="3">
+        <v>400</v>
+      </c>
+      <c r="U61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3434,7 +3579,7 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -3446,10 +3591,10 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>42</v>
@@ -3457,8 +3602,8 @@
       <c r="M62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3812,58 @@
         <v>2500</v>
       </c>
       <c r="E66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,19 +4118,22 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9100</v>
+        <v>-7700</v>
       </c>
       <c r="E72" s="3">
         <v>-9100</v>
       </c>
       <c r="F72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="G72" s="3">
         <v>-9200</v>
@@ -3972,40 +4145,43 @@
         <v>-9200</v>
       </c>
       <c r="J72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-10500</v>
       </c>
       <c r="P72" s="3">
         <v>-10500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-10500</v>
       </c>
       <c r="S72" s="3">
         <v>-10500</v>
       </c>
       <c r="T72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="U72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1900</v>
       </c>
       <c r="Q76" s="3">
         <v>1900</v>
       </c>
       <c r="R76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="S76" s="3">
         <v>1800</v>
       </c>
       <c r="T76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,55 +4984,58 @@
         <v>500</v>
       </c>
       <c r="E89" s="3">
+        <v>500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>200</v>
       </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,47 +5056,48 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4885,16 +5105,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,47 +5231,50 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5053,16 +5282,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,11 +5561,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5328,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
@@ -5355,16 +5600,19 @@
         <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SCIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,210 +665,220 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3300</v>
       </c>
       <c r="L9" s="3">
         <v>3300</v>
       </c>
       <c r="M9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,37 +886,37 @@
         <v>800</v>
       </c>
       <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>700</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
       </c>
       <c r="L10" s="3">
+        <v>700</v>
+      </c>
+      <c r="M10" s="3">
         <v>1000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>700</v>
       </c>
       <c r="N10" s="3">
         <v>700</v>
       </c>
       <c r="O10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
@@ -915,19 +925,22 @@
         <v>400</v>
       </c>
       <c r="R10" s="3">
+        <v>400</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,13 +962,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,88 +1231,92 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3900</v>
       </c>
       <c r="L17" s="3">
         <v>3900</v>
       </c>
       <c r="M17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1400</v>
       </c>
       <c r="T17" s="3">
         <v>1400</v>
       </c>
       <c r="U17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
@@ -1294,17 +1324,17 @@
         <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1312,19 +1342,22 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,17 +1379,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1405,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>300</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
       </c>
       <c r="L21" s="3">
+        <v>300</v>
+      </c>
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,76 +1563,82 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
       </c>
       <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,16 +2121,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1800</v>
       </c>
       <c r="H41" s="3">
         <v>1800</v>
       </c>
       <c r="I41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2518,22 +2608,25 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2542,102 +2635,108 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1200</v>
+        <v>3400</v>
       </c>
       <c r="E44" s="3">
         <v>1200</v>
       </c>
       <c r="F44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2648,11 +2747,11 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -2666,19 +2765,19 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2687,75 +2786,81 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E46" s="3">
         <v>4700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2813,55 +2918,58 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2400</v>
       </c>
       <c r="H48" s="3">
         <v>2400</v>
       </c>
       <c r="I48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2100</v>
       </c>
       <c r="S48" s="3">
         <v>2100</v>
@@ -2870,10 +2978,13 @@
         <v>2100</v>
       </c>
       <c r="U48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2922,17 +3033,20 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,17 +3166,20 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
-        <v>100</v>
-      </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
@@ -3094,7 +3214,7 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E54" s="3">
         <v>8100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,82 +3402,86 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
@@ -3364,19 +3498,19 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3390,141 +3524,150 @@
       <c r="U58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3800</v>
       </c>
       <c r="K60" s="3">
         <v>3800</v>
       </c>
       <c r="L60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
@@ -3541,7 +3684,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -3553,10 +3696,10 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
         <v>300</v>
-      </c>
-      <c r="R61" s="3">
-        <v>400</v>
       </c>
       <c r="S61" s="3">
         <v>400</v>
@@ -3565,10 +3708,13 @@
         <v>400</v>
       </c>
       <c r="U61" s="3">
+        <v>400</v>
+      </c>
+      <c r="V61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3582,7 +3728,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -3594,10 +3740,10 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>42</v>
@@ -3605,8 +3751,8 @@
       <c r="N62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="E66" s="3">
         <v>2500</v>
       </c>
       <c r="F66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,22 +4292,25 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-9100</v>
       </c>
       <c r="F72" s="3">
         <v>-9100</v>
       </c>
       <c r="G72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="H72" s="3">
         <v>-9200</v>
@@ -4148,40 +4322,43 @@
         <v>-9200</v>
       </c>
       <c r="K72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-10500</v>
       </c>
       <c r="Q72" s="3">
         <v>-10500</v>
       </c>
       <c r="R72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-10500</v>
       </c>
       <c r="T72" s="3">
         <v>-10500</v>
       </c>
       <c r="U72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="V72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E76" s="3">
         <v>5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1900</v>
       </c>
       <c r="R76" s="3">
         <v>1900</v>
       </c>
       <c r="S76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="T76" s="3">
         <v>1800</v>
       </c>
       <c r="U76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4987,55 +5204,58 @@
         <v>500</v>
       </c>
       <c r="F89" s="3">
+        <v>500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,50 +5277,51 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5108,16 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,50 +5461,53 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5285,16 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5564,11 +5810,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5576,13 +5822,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
@@ -5603,16 +5849,19 @@
         <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,271 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3300</v>
       </c>
       <c r="M9" s="3">
         <v>3300</v>
       </c>
       <c r="N9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>800</v>
       </c>
       <c r="F10" s="3">
+        <v>800</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>700</v>
       </c>
       <c r="M10" s="3">
+        <v>700</v>
+      </c>
+      <c r="N10" s="3">
         <v>1000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>700</v>
       </c>
       <c r="O10" s="3">
         <v>700</v>
       </c>
       <c r="P10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q10" s="3">
         <v>400</v>
@@ -928,19 +938,22 @@
         <v>400</v>
       </c>
       <c r="S10" s="3">
+        <v>400</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,16 +976,17 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>42</v>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,94 +1258,98 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3900</v>
       </c>
       <c r="M17" s="3">
         <v>3900</v>
       </c>
       <c r="N17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1400</v>
       </c>
       <c r="U17" s="3">
         <v>1400</v>
       </c>
       <c r="V17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
@@ -1327,17 +1357,17 @@
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1345,19 +1375,22 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1389,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>300</v>
       </c>
       <c r="L21" s="3">
         <v>300</v>
       </c>
       <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
         <v>100</v>
       </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,82 +1606,88 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
       <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2133,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1800</v>
       </c>
       <c r="I41" s="3">
         <v>1800</v>
       </c>
       <c r="J41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2611,25 +2701,28 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2638,110 +2731,116 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E44" s="3">
         <v>3400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1200</v>
       </c>
       <c r="F44" s="3">
         <v>1200</v>
       </c>
       <c r="G44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2750,11 +2849,11 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
@@ -2768,19 +2867,19 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2789,78 +2888,84 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E46" s="3">
         <v>7300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2921,58 +3026,61 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2400</v>
       </c>
       <c r="I48" s="3">
         <v>2400</v>
       </c>
       <c r="J48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2100</v>
       </c>
       <c r="T48" s="3">
         <v>2100</v>
@@ -2981,10 +3089,13 @@
         <v>2100</v>
       </c>
       <c r="V48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3036,17 +3147,20 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,11 +3298,11 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
@@ -3217,7 +3337,7 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,17 +3608,17 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
@@ -3501,19 +3635,19 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3800</v>
       </c>
       <c r="L60" s="3">
         <v>3800</v>
       </c>
       <c r="M60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,17 +3803,17 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>100</v>
-      </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
@@ -3687,7 +3830,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -3699,10 +3842,10 @@
         <v>200</v>
       </c>
       <c r="R61" s="3">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
         <v>300</v>
-      </c>
-      <c r="S61" s="3">
-        <v>400</v>
       </c>
       <c r="T61" s="3">
         <v>400</v>
@@ -3711,10 +3854,13 @@
         <v>400</v>
       </c>
       <c r="V61" s="3">
+        <v>400</v>
+      </c>
+      <c r="W61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3731,7 +3877,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -3743,10 +3889,10 @@
         <v>400</v>
       </c>
       <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
         <v>500</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>42</v>
@@ -3754,8 +3900,8 @@
       <c r="O62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2500</v>
       </c>
       <c r="F66" s="3">
         <v>2500</v>
       </c>
       <c r="G66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,25 +4466,28 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-9100</v>
       </c>
       <c r="G72" s="3">
         <v>-9100</v>
       </c>
       <c r="H72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="I72" s="3">
         <v>-9200</v>
@@ -4325,40 +4499,43 @@
         <v>-9200</v>
       </c>
       <c r="L72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-9400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-10500</v>
       </c>
       <c r="R72" s="3">
         <v>-10500</v>
       </c>
       <c r="S72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-10500</v>
       </c>
       <c r="U72" s="3">
         <v>-10500</v>
       </c>
       <c r="V72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E76" s="3">
         <v>5700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1900</v>
       </c>
       <c r="S76" s="3">
         <v>1900</v>
       </c>
       <c r="T76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="U76" s="3">
         <v>1800</v>
       </c>
       <c r="V76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,13 +5406,16 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E89" s="3">
         <v>500</v>
@@ -5207,55 +5424,58 @@
         <v>500</v>
       </c>
       <c r="G89" s="3">
+        <v>500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,53 +5498,54 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5332,16 +5553,19 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,53 +5691,56 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5518,16 +5748,19 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,13 +6041,16 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5813,11 +6059,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5825,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
@@ -5852,16 +6098,19 @@
         <v>-100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,284 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3300</v>
       </c>
       <c r="N9" s="3">
         <v>3300</v>
       </c>
       <c r="O9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>800</v>
       </c>
       <c r="F10" s="3">
         <v>800</v>
       </c>
       <c r="G10" s="3">
+        <v>800</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
+        <v>700</v>
+      </c>
+      <c r="O10" s="3">
         <v>1000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>700</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
@@ -941,19 +951,22 @@
         <v>400</v>
       </c>
       <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,10 +1000,10 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>42</v>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,100 +1285,104 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3900</v>
       </c>
       <c r="N17" s="3">
         <v>3900</v>
       </c>
       <c r="O17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1400</v>
       </c>
       <c r="V17" s="3">
         <v>1400</v>
       </c>
       <c r="W17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
@@ -1360,17 +1390,17 @@
         <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1378,19 +1408,22 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1426,11 +1460,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>300</v>
       </c>
       <c r="M21" s="3">
         <v>300</v>
       </c>
       <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
         <v>100</v>
       </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1609,88 +1649,94 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
       </c>
       <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
       <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2206,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1800</v>
       </c>
       <c r="J41" s="3">
         <v>1800</v>
       </c>
       <c r="K41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2704,28 +2794,31 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -2734,117 +2827,123 @@
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1200</v>
       </c>
       <c r="G44" s="3">
         <v>1200</v>
       </c>
       <c r="H44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -2852,11 +2951,11 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
@@ -2870,19 +2969,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2891,81 +2990,87 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="3">
         <v>8600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3038,52 +3146,52 @@
         <v>2500</v>
       </c>
       <c r="E48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2400</v>
       </c>
       <c r="J48" s="3">
         <v>2400</v>
       </c>
       <c r="K48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2100</v>
       </c>
       <c r="U48" s="3">
         <v>2100</v>
@@ -3092,10 +3200,13 @@
         <v>2100</v>
       </c>
       <c r="W48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3150,17 +3261,20 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,23 +3406,26 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
@@ -3340,7 +3460,7 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E54" s="3">
         <v>12100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,17 +3745,17 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
@@ -3638,19 +3772,19 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3800</v>
       </c>
       <c r="M60" s="3">
         <v>3800</v>
       </c>
       <c r="N60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,17 +3949,17 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
@@ -3833,7 +3976,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
@@ -3845,10 +3988,10 @@
         <v>200</v>
       </c>
       <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
         <v>300</v>
-      </c>
-      <c r="T61" s="3">
-        <v>400</v>
       </c>
       <c r="U61" s="3">
         <v>400</v>
@@ -3857,15 +4000,18 @@
         <v>400</v>
       </c>
       <c r="W61" s="3">
+        <v>400</v>
+      </c>
+      <c r="X61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -3880,7 +4026,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -3892,10 +4038,10 @@
         <v>400</v>
       </c>
       <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>42</v>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2500</v>
       </c>
       <c r="G66" s="3">
         <v>2500</v>
       </c>
       <c r="H66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,28 +4640,31 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-9100</v>
       </c>
       <c r="H72" s="3">
         <v>-9100</v>
       </c>
       <c r="I72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="J72" s="3">
         <v>-9200</v>
@@ -4502,40 +4676,43 @@
         <v>-9200</v>
       </c>
       <c r="M72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-9400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-10500</v>
       </c>
       <c r="S72" s="3">
         <v>-10500</v>
       </c>
       <c r="T72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="U72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-10500</v>
       </c>
       <c r="V72" s="3">
         <v>-10500</v>
       </c>
       <c r="W72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="X72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E76" s="3">
         <v>5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1900</v>
       </c>
       <c r="T76" s="3">
         <v>1900</v>
       </c>
       <c r="U76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="V76" s="3">
         <v>1800</v>
       </c>
       <c r="W76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,16 +5623,19 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
-      </c>
-      <c r="E89" s="3">
-        <v>500</v>
       </c>
       <c r="F89" s="3">
         <v>500</v>
@@ -5427,55 +5644,58 @@
         <v>500</v>
       </c>
       <c r="H89" s="3">
+        <v>500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>200</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,56 +5719,57 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5556,16 +5777,19 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,56 +5921,59 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5751,16 +5981,19 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,17 +6287,20 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6062,11 +6308,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6074,13 +6320,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
@@ -6101,16 +6347,19 @@
         <v>-100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,60 +6435,63 @@
         <v>500</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,287 +665,296 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3300</v>
       </c>
       <c r="O9" s="3">
         <v>3300</v>
       </c>
       <c r="P9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>800</v>
       </c>
       <c r="G10" s="3">
         <v>800</v>
       </c>
       <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>700</v>
       </c>
       <c r="N10" s="3">
         <v>700</v>
       </c>
       <c r="O10" s="3">
+        <v>700</v>
+      </c>
+      <c r="P10" s="3">
         <v>1000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>700</v>
       </c>
       <c r="Q10" s="3">
         <v>700</v>
       </c>
       <c r="R10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
@@ -954,19 +963,22 @@
         <v>400</v>
       </c>
       <c r="U10" s="3">
+        <v>400</v>
+      </c>
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,10 +1016,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>42</v>
@@ -1159,8 +1178,8 @@
       <c r="L14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,106 +1311,110 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3900</v>
       </c>
       <c r="O17" s="3">
         <v>3900</v>
       </c>
       <c r="P17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1400</v>
       </c>
       <c r="W17" s="3">
         <v>1400</v>
       </c>
       <c r="X17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
@@ -1393,17 +1422,17 @@
         <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1411,19 +1440,22 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1463,11 +1496,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>300</v>
       </c>
       <c r="N21" s="3">
         <v>300</v>
       </c>
       <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
       <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,94 +1691,100 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2279,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1800</v>
       </c>
       <c r="K41" s="3">
         <v>1800</v>
       </c>
       <c r="L41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2797,31 +2886,34 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -2830,123 +2922,129 @@
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>2000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1200</v>
       </c>
       <c r="H44" s="3">
         <v>1200</v>
       </c>
       <c r="I44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -2954,11 +3052,11 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
@@ -2972,19 +3070,19 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2993,84 +3091,90 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E46" s="3">
         <v>6800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3137,64 +3241,67 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
         <v>2500</v>
       </c>
       <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2400</v>
       </c>
       <c r="K48" s="3">
         <v>2400</v>
       </c>
       <c r="L48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2100</v>
       </c>
       <c r="V48" s="3">
         <v>2100</v>
@@ -3203,10 +3310,13 @@
         <v>2100</v>
       </c>
       <c r="X48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3264,17 +3374,20 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,17 +3537,17 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
@@ -3463,7 +3582,7 @@
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E54" s="3">
         <v>10100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,67 +3804,70 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
       </c>
       <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,17 +3881,17 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
@@ -3775,19 +3908,19 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,140 +3946,146 @@
         <v>2200</v>
       </c>
       <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3800</v>
       </c>
       <c r="N60" s="3">
         <v>3800</v>
       </c>
       <c r="O60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -3952,17 +4094,17 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
@@ -3979,7 +4121,7 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>200</v>
@@ -3991,10 +4133,10 @@
         <v>200</v>
       </c>
       <c r="T61" s="3">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
         <v>300</v>
-      </c>
-      <c r="U61" s="3">
-        <v>400</v>
       </c>
       <c r="V61" s="3">
         <v>400</v>
@@ -4003,10 +4145,13 @@
         <v>400</v>
       </c>
       <c r="X61" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,7 +4159,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -4029,7 +4174,7 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -4041,10 +4186,10 @@
         <v>400</v>
       </c>
       <c r="N62" s="3">
+        <v>400</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>42</v>
@@ -4052,8 +4197,8 @@
       <c r="Q62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2500</v>
       </c>
       <c r="H66" s="3">
         <v>2500</v>
       </c>
       <c r="I66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,13 +4671,16 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>500</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,31 +4813,34 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-9100</v>
       </c>
       <c r="I72" s="3">
         <v>-9100</v>
       </c>
       <c r="J72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="K72" s="3">
         <v>-9200</v>
@@ -4679,40 +4852,43 @@
         <v>-9200</v>
       </c>
       <c r="N72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-9400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-10500</v>
       </c>
       <c r="T72" s="3">
         <v>-10500</v>
       </c>
       <c r="U72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="V72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-10500</v>
       </c>
       <c r="W72" s="3">
         <v>-10500</v>
       </c>
       <c r="X72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>6500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1900</v>
       </c>
       <c r="U76" s="3">
         <v>1900</v>
       </c>
       <c r="V76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="W76" s="3">
         <v>1800</v>
       </c>
       <c r="X76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,19 +5839,22 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>500</v>
       </c>
       <c r="G89" s="3">
         <v>500</v>
@@ -5647,55 +5863,58 @@
         <v>500</v>
       </c>
       <c r="I89" s="3">
+        <v>500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,50 +5949,50 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5780,16 +6000,19 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,59 +6150,62 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5984,16 +6213,19 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,20 +6532,23 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6311,11 +6556,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6323,13 +6568,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
@@ -6350,16 +6595,19 @@
         <v>-100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>500</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,299 +665,309 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3300</v>
       </c>
       <c r="P9" s="3">
         <v>3300</v>
       </c>
       <c r="Q9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>800</v>
       </c>
       <c r="H10" s="3">
         <v>800</v>
       </c>
       <c r="I10" s="3">
+        <v>800</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>700</v>
       </c>
       <c r="O10" s="3">
         <v>700</v>
       </c>
       <c r="P10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>700</v>
       </c>
       <c r="R10" s="3">
         <v>700</v>
       </c>
       <c r="S10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
@@ -966,19 +976,22 @@
         <v>400</v>
       </c>
       <c r="V10" s="3">
+        <v>400</v>
+      </c>
+      <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
       <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,10 +1033,10 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>42</v>
@@ -1181,8 +1201,8 @@
       <c r="M14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,112 +1338,116 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3900</v>
       </c>
       <c r="P17" s="3">
         <v>3900</v>
       </c>
       <c r="Q17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1400</v>
       </c>
       <c r="X17" s="3">
         <v>1400</v>
       </c>
       <c r="Y17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
@@ -1425,17 +1455,17 @@
         <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1443,19 +1473,22 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,11 +1533,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1552,79 +1586,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>300</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
       </c>
       <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
         <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
       <c r="X21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>200</v>
       </c>
       <c r="P23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1774,20 +1820,20 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2351,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2404,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1800</v>
       </c>
       <c r="L41" s="3">
         <v>1800</v>
       </c>
       <c r="M41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2889,34 +2979,37 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2925,129 +3018,135 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1200</v>
       </c>
       <c r="I44" s="3">
         <v>1200</v>
       </c>
       <c r="J44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -3055,11 +3154,11 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
@@ -3073,19 +3172,19 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3094,87 +3193,93 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>100</v>
-      </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E46" s="3">
         <v>6400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3253,58 +3361,58 @@
         <v>2400</v>
       </c>
       <c r="E48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F48" s="3">
         <v>2500</v>
       </c>
       <c r="G48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2400</v>
       </c>
       <c r="L48" s="3">
         <v>2400</v>
       </c>
       <c r="M48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2100</v>
       </c>
       <c r="W48" s="3">
         <v>2100</v>
@@ -3313,10 +3421,13 @@
         <v>2100</v>
       </c>
       <c r="Y48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3377,17 +3488,20 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,29 +3645,32 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
@@ -3585,7 +3705,7 @@
         <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3807,67 +3938,70 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
       </c>
       <c r="X57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3884,17 +4018,17 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
@@ -3911,19 +4045,19 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
@@ -3937,79 +4071,85 @@
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E59" s="3">
         <v>2200</v>
       </c>
       <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4017,70 +4157,73 @@
         <v>2500</v>
       </c>
       <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3800</v>
       </c>
       <c r="O60" s="3">
         <v>3800</v>
       </c>
       <c r="P60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,7 +4231,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -4097,17 +4240,17 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
@@ -4124,7 +4267,7 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
@@ -4136,10 +4279,10 @@
         <v>200</v>
       </c>
       <c r="U61" s="3">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
         <v>300</v>
-      </c>
-      <c r="V61" s="3">
-        <v>400</v>
       </c>
       <c r="W61" s="3">
         <v>400</v>
@@ -4148,10 +4291,13 @@
         <v>400</v>
       </c>
       <c r="Y61" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4162,7 +4308,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -4177,7 +4323,7 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
@@ -4189,10 +4335,10 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
+        <v>400</v>
+      </c>
+      <c r="P62" s="3">
         <v>500</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>42</v>
@@ -4200,8 +4346,8 @@
       <c r="R62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2500</v>
       </c>
       <c r="I66" s="3">
         <v>2500</v>
       </c>
       <c r="J66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4683,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>500</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,34 +4987,37 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-9100</v>
       </c>
       <c r="J72" s="3">
         <v>-9100</v>
       </c>
       <c r="K72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="L72" s="3">
         <v>-9200</v>
@@ -4855,40 +5029,43 @@
         <v>-9200</v>
       </c>
       <c r="O72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-9400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-10500</v>
       </c>
       <c r="U72" s="3">
         <v>-10500</v>
       </c>
       <c r="V72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-10500</v>
       </c>
       <c r="X72" s="3">
         <v>-10500</v>
       </c>
       <c r="Y72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>1900</v>
       </c>
       <c r="V76" s="3">
         <v>1900</v>
       </c>
       <c r="W76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="X76" s="3">
         <v>1800</v>
       </c>
       <c r="Y76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,22 +6056,25 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>500</v>
       </c>
       <c r="H89" s="3">
         <v>500</v>
@@ -5866,55 +6083,58 @@
         <v>500</v>
       </c>
       <c r="J89" s="3">
+        <v>500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5952,50 +6173,50 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -6003,16 +6224,19 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,53 +6392,53 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6216,16 +6446,19 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,23 +6778,26 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6559,11 +6805,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6571,13 +6817,13 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -6598,16 +6844,19 @@
         <v>-100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>500</v>
       </c>
       <c r="F102" s="3">
         <v>500</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>SCIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,312 +665,322 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3300</v>
       </c>
       <c r="Q9" s="3">
         <v>3300</v>
       </c>
       <c r="R9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>800</v>
       </c>
       <c r="I10" s="3">
         <v>800</v>
       </c>
       <c r="J10" s="3">
+        <v>800</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>700</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
+        <v>700</v>
+      </c>
+      <c r="R10" s="3">
         <v>1000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>700</v>
       </c>
       <c r="S10" s="3">
         <v>700</v>
       </c>
       <c r="T10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
@@ -979,19 +989,22 @@
         <v>400</v>
       </c>
       <c r="W10" s="3">
+        <v>400</v>
+      </c>
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1036,10 +1050,10 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>42</v>
@@ -1204,8 +1224,8 @@
       <c r="N14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,118 +1365,122 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3900</v>
       </c>
       <c r="Q17" s="3">
         <v>3900</v>
       </c>
       <c r="R17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1400</v>
       </c>
       <c r="Y17" s="3">
         <v>1400</v>
       </c>
       <c r="Z17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
@@ -1458,17 +1488,17 @@
         <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1476,19 +1506,22 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1536,11 +1570,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1589,82 +1623,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>300</v>
       </c>
       <c r="P21" s="3">
         <v>300</v>
       </c>
       <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
         <v>100</v>
       </c>
       <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
-        <v>100</v>
-      </c>
       <c r="Y21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1674,20 +1714,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>200</v>
       </c>
       <c r="Q23" s="3">
+        <v>200</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1823,20 +1869,20 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>200</v>
       </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2424,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1800</v>
       </c>
       <c r="M41" s="3">
         <v>1800</v>
       </c>
       <c r="N41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2991,28 +3084,28 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -3021,135 +3114,141 @@
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
       <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1200</v>
       </c>
       <c r="J44" s="3">
         <v>1200</v>
       </c>
       <c r="K44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
@@ -3157,11 +3256,11 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
@@ -3175,19 +3274,19 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3196,90 +3295,96 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
-        <v>100</v>
-      </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E46" s="3">
         <v>6900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3364,58 +3472,58 @@
         <v>2400</v>
       </c>
       <c r="F48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G48" s="3">
         <v>2500</v>
       </c>
       <c r="H48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2400</v>
       </c>
       <c r="M48" s="3">
         <v>2400</v>
       </c>
       <c r="N48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2100</v>
       </c>
       <c r="X48" s="3">
         <v>2100</v>
@@ -3424,10 +3532,13 @@
         <v>2100</v>
       </c>
       <c r="Z48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3491,17 +3602,20 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,32 +3765,35 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
-        <v>100</v>
-      </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
@@ -3708,7 +3828,7 @@
         <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,13 +4056,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3941,67 +4072,70 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
       <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4021,17 +4155,17 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
@@ -4048,19 +4182,19 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -4074,156 +4208,165 @@
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2200</v>
       </c>
       <c r="F59" s="3">
         <v>2200</v>
       </c>
       <c r="G59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="E60" s="3">
         <v>2500</v>
       </c>
       <c r="F60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3800</v>
       </c>
       <c r="P60" s="3">
         <v>3800</v>
       </c>
       <c r="Q60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4234,7 +4377,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -4243,17 +4386,17 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
@@ -4270,7 +4413,7 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>200</v>
@@ -4282,10 +4425,10 @@
         <v>200</v>
       </c>
       <c r="V61" s="3">
+        <v>200</v>
+      </c>
+      <c r="W61" s="3">
         <v>300</v>
-      </c>
-      <c r="W61" s="3">
-        <v>400</v>
       </c>
       <c r="X61" s="3">
         <v>400</v>
@@ -4294,10 +4437,13 @@
         <v>400</v>
       </c>
       <c r="Z61" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4311,7 +4457,7 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -4326,7 +4472,7 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -4338,10 +4484,10 @@
         <v>400</v>
       </c>
       <c r="P62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q62" s="3">
         <v>500</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>42</v>
@@ -4349,8 +4495,8 @@
       <c r="S62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2500</v>
       </c>
       <c r="J66" s="3">
         <v>2500</v>
       </c>
       <c r="K66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4854,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>500</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,37 +5161,40 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-9100</v>
       </c>
       <c r="K72" s="3">
         <v>-9100</v>
       </c>
       <c r="L72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="M72" s="3">
         <v>-9200</v>
@@ -5032,40 +5206,43 @@
         <v>-9200</v>
       </c>
       <c r="P72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-10500</v>
       </c>
       <c r="V72" s="3">
         <v>-10500</v>
       </c>
       <c r="W72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="X72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-10500</v>
       </c>
       <c r="Y72" s="3">
         <v>-10500</v>
       </c>
       <c r="Z72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E76" s="3">
         <v>7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>1900</v>
       </c>
       <c r="W76" s="3">
         <v>1900</v>
       </c>
       <c r="X76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="Y76" s="3">
         <v>1800</v>
       </c>
       <c r="Z76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,25 +6273,28 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>500</v>
       </c>
       <c r="I89" s="3">
         <v>500</v>
@@ -6086,55 +6303,58 @@
         <v>500</v>
       </c>
       <c r="K89" s="3">
+        <v>500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
       </c>
       <c r="M89" s="3">
         <v>200</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6176,50 +6397,50 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -6227,16 +6448,19 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6395,53 +6625,53 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6449,16 +6679,19 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,17 +7036,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6808,11 +7054,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6820,13 +7066,13 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
@@ -6847,16 +7093,19 @@
         <v>-100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>500</v>
       </c>
       <c r="G102" s="3">
         <v>500</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>SCIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,325 +665,335 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E8" s="3">
         <v>6500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="3">
         <v>5100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>3300</v>
       </c>
       <c r="R9" s="3">
         <v>3300</v>
       </c>
       <c r="S9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>800</v>
       </c>
       <c r="J10" s="3">
         <v>800</v>
       </c>
       <c r="K10" s="3">
+        <v>800</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>700</v>
       </c>
       <c r="Q10" s="3">
         <v>700</v>
       </c>
       <c r="R10" s="3">
+        <v>700</v>
+      </c>
+      <c r="S10" s="3">
         <v>1000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>700</v>
       </c>
       <c r="T10" s="3">
         <v>700</v>
       </c>
       <c r="U10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="V10" s="3">
         <v>400</v>
@@ -992,19 +1002,22 @@
         <v>400</v>
       </c>
       <c r="X10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1053,10 +1067,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>42</v>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,124 +1392,128 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>3900</v>
       </c>
       <c r="R17" s="3">
         <v>3900</v>
       </c>
       <c r="S17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1400</v>
       </c>
       <c r="Z17" s="3">
         <v>1400</v>
       </c>
       <c r="AA17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
@@ -1491,17 +1521,17 @@
         <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1509,19 +1539,22 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1573,11 +1607,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1626,96 +1660,102 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>300</v>
       </c>
       <c r="Q21" s="3">
         <v>300</v>
       </c>
       <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
       <c r="W21" s="3">
         <v>100</v>
       </c>
       <c r="X21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>100</v>
-      </c>
       <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>42</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>42</v>
@@ -1729,8 +1769,8 @@
       <c r="J22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1780,90 +1820,96 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>200</v>
       </c>
       <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1872,20 +1918,20 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>200</v>
       </c>
       <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2497,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1800</v>
       </c>
       <c r="N41" s="3">
         <v>1800</v>
       </c>
       <c r="O41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3075,40 +3165,43 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
       </c>
       <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
@@ -3117,141 +3210,147 @@
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
-      </c>
-      <c r="U43" s="3">
-        <v>300</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1200</v>
       </c>
       <c r="K44" s="3">
         <v>1200</v>
       </c>
       <c r="L44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
@@ -3259,11 +3358,11 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
@@ -3277,19 +3376,19 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3298,93 +3397,99 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
-        <v>100</v>
-      </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E46" s="3">
         <v>9900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3460,13 +3565,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>2400</v>
@@ -3475,58 +3583,58 @@
         <v>2400</v>
       </c>
       <c r="G48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H48" s="3">
         <v>2500</v>
       </c>
       <c r="I48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2400</v>
       </c>
       <c r="N48" s="3">
         <v>2400</v>
       </c>
       <c r="O48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2100</v>
       </c>
       <c r="Y48" s="3">
         <v>2100</v>
@@ -3535,10 +3643,13 @@
         <v>2100</v>
       </c>
       <c r="AA48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AB48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3605,17 +3716,20 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
-      </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,35 +3885,38 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>800</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
-        <v>100</v>
-      </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
@@ -3831,7 +3951,7 @@
         <v>100</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E54" s="3">
         <v>12900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,16 +4187,17 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -4075,67 +4206,70 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
       </c>
       <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4158,17 +4292,17 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
@@ -4185,19 +4319,19 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
       <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
         <v>400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
@@ -4211,162 +4345,171 @@
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2200</v>
       </c>
       <c r="G59" s="3">
         <v>2200</v>
       </c>
       <c r="H59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2500</v>
       </c>
       <c r="F60" s="3">
         <v>2500</v>
       </c>
       <c r="G60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3800</v>
       </c>
       <c r="Q60" s="3">
         <v>3800</v>
       </c>
       <c r="R60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S60" s="3">
         <v>4000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4380,7 +4523,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -4389,17 +4532,17 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>100</v>
-      </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
@@ -4416,7 +4559,7 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>200</v>
@@ -4428,10 +4571,10 @@
         <v>200</v>
       </c>
       <c r="W61" s="3">
+        <v>200</v>
+      </c>
+      <c r="X61" s="3">
         <v>300</v>
-      </c>
-      <c r="X61" s="3">
-        <v>400</v>
       </c>
       <c r="Y61" s="3">
         <v>400</v>
@@ -4440,15 +4583,18 @@
         <v>400</v>
       </c>
       <c r="AA61" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4460,7 +4606,7 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -4475,7 +4621,7 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
@@ -4487,10 +4633,10 @@
         <v>400</v>
       </c>
       <c r="Q62" s="3">
+        <v>400</v>
+      </c>
+      <c r="R62" s="3">
         <v>500</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>42</v>
@@ -4498,8 +4644,8 @@
       <c r="T62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2500</v>
       </c>
       <c r="K66" s="3">
         <v>2500</v>
       </c>
       <c r="L66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5025,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>500</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,40 +5335,43 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-9100</v>
       </c>
       <c r="L72" s="3">
         <v>-9100</v>
       </c>
       <c r="M72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="N72" s="3">
         <v>-9200</v>
@@ -5209,40 +5383,43 @@
         <v>-9200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-9400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-10500</v>
       </c>
       <c r="W72" s="3">
         <v>-10500</v>
       </c>
       <c r="X72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-10500</v>
       </c>
       <c r="Z72" s="3">
         <v>-10500</v>
       </c>
       <c r="AA72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E76" s="3">
         <v>7800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1900</v>
       </c>
       <c r="X76" s="3">
         <v>1900</v>
       </c>
       <c r="Y76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="Z76" s="3">
         <v>1800</v>
       </c>
       <c r="AA76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AB76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,28 +6490,31 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>500</v>
       </c>
       <c r="J89" s="3">
         <v>500</v>
@@ -6306,55 +6523,58 @@
         <v>500</v>
       </c>
       <c r="L89" s="3">
+        <v>500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>200</v>
       </c>
       <c r="N89" s="3">
         <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,13 +6602,14 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -6400,50 +6621,50 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6451,16 +6672,19 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,13 +6840,16 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -6628,53 +6858,53 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6682,16 +6912,19 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,17 +7285,17 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7057,11 +7303,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7069,13 +7315,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
@@ -7096,16 +7342,19 @@
         <v>-100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>500</v>
       </c>
       <c r="H102" s="3">
         <v>500</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>SCIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,79 +788,82 @@
         <v>5800</v>
       </c>
       <c r="E8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F8" s="3">
         <v>6500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -865,79 +871,82 @@
         <v>4600</v>
       </c>
       <c r="E9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>3300</v>
       </c>
       <c r="S9" s="3">
         <v>3300</v>
       </c>
       <c r="T9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,58 +954,58 @@
         <v>1200</v>
       </c>
       <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>800</v>
       </c>
       <c r="K10" s="3">
         <v>800</v>
       </c>
       <c r="L10" s="3">
+        <v>800</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>700</v>
       </c>
       <c r="R10" s="3">
         <v>700</v>
       </c>
       <c r="S10" s="3">
+        <v>700</v>
+      </c>
+      <c r="T10" s="3">
         <v>1000</v>
-      </c>
-      <c r="T10" s="3">
-        <v>700</v>
       </c>
       <c r="U10" s="3">
         <v>700</v>
       </c>
       <c r="V10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
@@ -1005,19 +1014,22 @@
         <v>400</v>
       </c>
       <c r="Y10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z10" s="3">
         <v>500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,10 +1083,10 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>42</v>
@@ -1250,8 +1269,8 @@
       <c r="P14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1402,79 +1428,82 @@
         <v>5200</v>
       </c>
       <c r="E17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>3900</v>
       </c>
       <c r="S17" s="3">
         <v>3900</v>
       </c>
       <c r="T17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1400</v>
       </c>
       <c r="AA17" s="3">
         <v>1400</v>
       </c>
       <c r="AB17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,41 +1511,41 @@
         <v>600</v>
       </c>
       <c r="E18" s="3">
+        <v>600</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
         <v>100</v>
       </c>
@@ -1524,17 +1553,17 @@
         <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1542,19 +1571,22 @@
         <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1610,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1663,102 +1696,108 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>300</v>
       </c>
       <c r="R21" s="3">
         <v>300</v>
       </c>
       <c r="S21" s="3">
+        <v>300</v>
+      </c>
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
       <c r="X21" s="3">
         <v>100</v>
       </c>
       <c r="Y21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
       <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>42</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>42</v>
@@ -1772,8 +1811,8 @@
       <c r="K22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1823,88 +1862,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
       </c>
       <c r="S23" s="3">
+        <v>200</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1957,7 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1921,20 +1966,20 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
       <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2570,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2623,88 +2692,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,111 +3093,115 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1800</v>
       </c>
       <c r="O41" s="3">
         <v>1800</v>
       </c>
       <c r="P41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3168,43 +3257,46 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>800</v>
       </c>
       <c r="F43" s="3">
         <v>800</v>
       </c>
       <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
@@ -3213,123 +3305,129 @@
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
-      </c>
-      <c r="V43" s="3">
-        <v>300</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
       </c>
       <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1200</v>
       </c>
       <c r="L44" s="3">
         <v>1200</v>
       </c>
       <c r="M44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3337,23 +3435,23 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
@@ -3361,11 +3459,11 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
@@ -3379,19 +3477,19 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3400,119 +3498,125 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
-        <v>100</v>
-      </c>
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E46" s="3">
         <v>7800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3568,16 +3672,19 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2400</v>
       </c>
       <c r="F48" s="3">
         <v>2400</v>
@@ -3586,58 +3693,58 @@
         <v>2400</v>
       </c>
       <c r="H48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
       </c>
       <c r="J48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2400</v>
       </c>
       <c r="O48" s="3">
         <v>2400</v>
       </c>
       <c r="P48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>2100</v>
       </c>
       <c r="Z48" s="3">
         <v>2100</v>
@@ -3646,10 +3753,13 @@
         <v>2100</v>
       </c>
       <c r="AB48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AC48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3719,17 +3829,20 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,38 +4004,41 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
       </c>
       <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
@@ -3954,7 +4073,7 @@
         <v>100</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,10 +4327,10 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -4209,67 +4339,70 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>400</v>
       </c>
       <c r="Z57" s="3">
         <v>400</v>
       </c>
       <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4295,17 +4428,17 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
@@ -4322,19 +4455,19 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
       <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
         <v>400</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
@@ -4348,173 +4481,182 @@
       <c r="AB58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2200</v>
       </c>
       <c r="H59" s="3">
         <v>2200</v>
       </c>
       <c r="I59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2500</v>
       </c>
       <c r="G60" s="3">
         <v>2500</v>
       </c>
       <c r="H60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3800</v>
       </c>
       <c r="R60" s="3">
         <v>3800</v>
       </c>
       <c r="S60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T60" s="3">
         <v>4000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4526,7 +4668,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -4535,17 +4677,17 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>100</v>
-      </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
@@ -4562,7 +4704,7 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>200</v>
@@ -4574,10 +4716,10 @@
         <v>200</v>
       </c>
       <c r="X61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y61" s="3">
         <v>300</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>400</v>
       </c>
       <c r="Z61" s="3">
         <v>400</v>
@@ -4586,10 +4728,13 @@
         <v>400</v>
       </c>
       <c r="AB61" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4597,7 +4742,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -4609,7 +4754,7 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -4624,7 +4769,7 @@
         <v>300</v>
       </c>
       <c r="N62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
@@ -4636,10 +4781,10 @@
         <v>400</v>
       </c>
       <c r="R62" s="3">
+        <v>400</v>
+      </c>
+      <c r="S62" s="3">
         <v>500</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>42</v>
@@ -4647,8 +4792,8 @@
       <c r="U62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2500</v>
       </c>
       <c r="L66" s="3">
         <v>2500</v>
       </c>
       <c r="M66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5196,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>500</v>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,43 +5508,46 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-9100</v>
       </c>
       <c r="M72" s="3">
         <v>-9100</v>
       </c>
       <c r="N72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="O72" s="3">
         <v>-9200</v>
@@ -5386,40 +5559,43 @@
         <v>-9200</v>
       </c>
       <c r="R72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-9400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-10500</v>
       </c>
       <c r="X72" s="3">
         <v>-10500</v>
       </c>
       <c r="Y72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-10500</v>
       </c>
       <c r="AA72" s="3">
         <v>-10500</v>
       </c>
       <c r="AB72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E76" s="3">
         <v>8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>1900</v>
       </c>
       <c r="Y76" s="3">
         <v>1900</v>
       </c>
       <c r="Z76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="AA76" s="3">
         <v>1800</v>
       </c>
       <c r="AB76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AC76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,31 +6706,34 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>500</v>
       </c>
       <c r="K89" s="3">
         <v>500</v>
@@ -6526,55 +6742,58 @@
         <v>500</v>
       </c>
       <c r="M89" s="3">
+        <v>500</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
       </c>
       <c r="O89" s="3">
         <v>200</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1300</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Z89" s="3">
-        <v>100</v>
-      </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,16 +6822,17 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -6624,50 +6844,50 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6675,16 +6895,19 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,16 +7069,19 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -6861,53 +7090,53 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -6915,16 +7144,19 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7288,17 +7533,17 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7306,11 +7551,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7318,13 +7563,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
@@ -7345,16 +7590,19 @@
         <v>-100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>500</v>
       </c>
       <c r="I102" s="3">
         <v>500</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>SCIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,224 +795,230 @@
         <v>5800</v>
       </c>
       <c r="F8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G8" s="3">
         <v>6500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E9" s="3">
         <v>4600</v>
       </c>
       <c r="F9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3300</v>
       </c>
       <c r="T9" s="3">
         <v>3300</v>
       </c>
       <c r="U9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="3">
         <v>1200</v>
       </c>
       <c r="F10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>800</v>
       </c>
       <c r="L10" s="3">
         <v>800</v>
       </c>
       <c r="M10" s="3">
+        <v>800</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>700</v>
       </c>
       <c r="S10" s="3">
         <v>700</v>
       </c>
       <c r="T10" s="3">
+        <v>700</v>
+      </c>
+      <c r="U10" s="3">
         <v>1000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>700</v>
       </c>
       <c r="V10" s="3">
         <v>700</v>
       </c>
       <c r="W10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="X10" s="3">
         <v>400</v>
@@ -1017,19 +1027,22 @@
         <v>400</v>
       </c>
       <c r="Z10" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA10" s="3">
         <v>500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>400</v>
       </c>
-      <c r="AB10" s="3">
-        <v>100</v>
-      </c>
       <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,10 +1100,10 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,13 +1242,16 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1252,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>42</v>
@@ -1272,8 +1292,8 @@
       <c r="Q14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,136 +1445,140 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E17" s="3">
         <v>5200</v>
       </c>
       <c r="F17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3900</v>
       </c>
       <c r="T17" s="3">
         <v>3900</v>
       </c>
       <c r="U17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1400</v>
       </c>
       <c r="AB17" s="3">
         <v>1400</v>
       </c>
       <c r="AC17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E18" s="3">
         <v>600</v>
       </c>
       <c r="F18" s="3">
+        <v>600</v>
+      </c>
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
         <v>100</v>
       </c>
@@ -1556,17 +1586,17 @@
         <v>100</v>
       </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
@@ -1574,19 +1604,22 @@
         <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,11 +1680,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1699,8 +1733,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1708,82 +1745,85 @@
         <v>800</v>
       </c>
       <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>300</v>
       </c>
       <c r="S21" s="3">
         <v>300</v>
       </c>
       <c r="T21" s="3">
+        <v>300</v>
+      </c>
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
-        <v>100</v>
-      </c>
       <c r="Y21" s="3">
         <v>100</v>
       </c>
       <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
-        <v>100</v>
-      </c>
       <c r="AB21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1793,14 +1833,14 @@
       <c r="E22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>42</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>42</v>
@@ -1814,8 +1854,8 @@
       <c r="L22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1865,8 +1905,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1874,82 +1917,85 @@
         <v>700</v>
       </c>
       <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>200</v>
       </c>
       <c r="T23" s="3">
+        <v>200</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1960,7 +2006,7 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1969,20 +2015,20 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2123,82 +2175,85 @@
         <v>500</v>
       </c>
       <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
       </c>
       <c r="T26" s="3">
+        <v>200</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2206,82 +2261,85 @@
         <v>500</v>
       </c>
       <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2642,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2695,8 +2765,11 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -2704,82 +2777,85 @@
         <v>500</v>
       </c>
       <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2870,170 +2949,176 @@
         <v>500</v>
       </c>
       <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,99 +3180,103 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1800</v>
       </c>
       <c r="P41" s="3">
         <v>1800</v>
       </c>
       <c r="Q41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>42</v>
+      <c r="E42" s="3">
+        <v>1000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>42</v>
@@ -3203,8 +3293,8 @@
       <c r="J42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -3269,37 +3362,37 @@
         <v>900</v>
       </c>
       <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
       </c>
       <c r="H43" s="3">
+        <v>800</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
@@ -3308,153 +3401,159 @@
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
-      </c>
-      <c r="W43" s="3">
-        <v>300</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
       </c>
       <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1200</v>
       </c>
       <c r="M44" s="3">
         <v>1200</v>
       </c>
       <c r="N44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
@@ -3462,11 +3561,11 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
@@ -3480,19 +3579,19 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
-      </c>
-      <c r="V45" s="3">
-        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3501,107 +3600,113 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
-        <v>100</v>
-      </c>
       <c r="AC45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E46" s="3">
         <v>8100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>42</v>
+      <c r="E47" s="3">
+        <v>1000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>42</v>
@@ -3618,8 +3723,8 @@
       <c r="J47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3675,19 +3780,22 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2400</v>
       </c>
       <c r="G48" s="3">
         <v>2400</v>
@@ -3696,58 +3804,58 @@
         <v>2400</v>
       </c>
       <c r="I48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J48" s="3">
         <v>2500</v>
       </c>
       <c r="K48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2400</v>
       </c>
       <c r="P48" s="3">
         <v>2400</v>
       </c>
       <c r="Q48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>2100</v>
       </c>
       <c r="AA48" s="3">
         <v>2100</v>
@@ -3756,10 +3864,13 @@
         <v>2100</v>
       </c>
       <c r="AC48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AD48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3832,17 +3943,20 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-      <c r="AA49" s="3" t="s">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB49" s="3">
-        <v>0</v>
-      </c>
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,41 +4124,44 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
       <c r="L52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
@@ -4076,7 +4196,7 @@
         <v>100</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E54" s="3">
         <v>11800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,22 +4448,23 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -4342,67 +4473,70 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>400</v>
       </c>
       <c r="AA57" s="3">
         <v>400</v>
       </c>
       <c r="AB57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC57" s="3">
         <v>200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4431,17 +4565,17 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
@@ -4458,19 +4592,19 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
       <c r="X58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y58" s="3">
         <v>400</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
@@ -4484,174 +4618,183 @@
       <c r="AC58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2200</v>
       </c>
       <c r="I59" s="3">
         <v>2200</v>
       </c>
       <c r="J59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2500</v>
       </c>
       <c r="H60" s="3">
         <v>2500</v>
       </c>
       <c r="I60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>3800</v>
       </c>
       <c r="S60" s="3">
         <v>3800</v>
       </c>
       <c r="T60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U60" s="3">
         <v>4000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4659,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -4671,7 +4814,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -4680,17 +4823,17 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>100</v>
-      </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
@@ -4707,7 +4850,7 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>200</v>
@@ -4719,10 +4862,10 @@
         <v>200</v>
       </c>
       <c r="Y61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z61" s="3">
         <v>300</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>400</v>
       </c>
       <c r="AA61" s="3">
         <v>400</v>
@@ -4731,10 +4874,13 @@
         <v>400</v>
       </c>
       <c r="AC61" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4745,7 +4891,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -4757,7 +4903,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -4772,7 +4918,7 @@
         <v>300</v>
       </c>
       <c r="O62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
@@ -4784,10 +4930,10 @@
         <v>400</v>
       </c>
       <c r="S62" s="3">
+        <v>400</v>
+      </c>
+      <c r="T62" s="3">
         <v>500</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>42</v>
@@ -4795,8 +4941,8 @@
       <c r="V62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2500</v>
       </c>
       <c r="M66" s="3">
         <v>2500</v>
       </c>
       <c r="N66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5366,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>500</v>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,46 +5682,49 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-9100</v>
       </c>
       <c r="N72" s="3">
         <v>-9100</v>
       </c>
       <c r="O72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="P72" s="3">
         <v>-9200</v>
@@ -5562,40 +5736,43 @@
         <v>-9200</v>
       </c>
       <c r="S72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="T72" s="3">
         <v>-9400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-10500</v>
       </c>
       <c r="Y72" s="3">
         <v>-10500</v>
       </c>
       <c r="Z72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-10500</v>
       </c>
       <c r="AB72" s="3">
         <v>-10500</v>
       </c>
       <c r="AC72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E76" s="3">
         <v>8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>1900</v>
       </c>
       <c r="Z76" s="3">
         <v>1900</v>
       </c>
       <c r="AA76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="AB76" s="3">
         <v>1800</v>
       </c>
       <c r="AC76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AD76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -6106,82 +6301,85 @@
         <v>500</v>
       </c>
       <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,34 +6923,37 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>500</v>
       </c>
       <c r="L89" s="3">
         <v>500</v>
@@ -6745,55 +6962,58 @@
         <v>500</v>
       </c>
       <c r="N89" s="3">
+        <v>500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>200</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1300</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
-      <c r="AA89" s="3">
-        <v>100</v>
-      </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,19 +7043,20 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -6847,50 +7068,50 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
@@ -6898,16 +7119,19 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,19 +7299,22 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -7093,53 +7323,53 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -7147,16 +7377,19 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7536,17 +7782,17 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7554,11 +7800,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7566,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
@@ -7593,16 +7839,19 @@
         <v>-100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>500</v>
       </c>
       <c r="J102" s="3">
         <v>500</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SCIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5800</v>
+        <v>7500</v>
       </c>
       <c r="E8" s="3">
         <v>5800</v>
@@ -798,165 +802,171 @@
         <v>5800</v>
       </c>
       <c r="G8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H8" s="3">
         <v>6500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E9" s="3">
         <v>4500</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4600</v>
       </c>
       <c r="F9" s="3">
         <v>4600</v>
       </c>
       <c r="G9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H9" s="3">
         <v>5100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3300</v>
       </c>
       <c r="U9" s="3">
         <v>3300</v>
       </c>
       <c r="V9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W9" s="3">
         <v>2000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -964,64 +974,64 @@
         <v>1300</v>
       </c>
       <c r="E10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F10" s="3">
         <v>1200</v>
       </c>
       <c r="G10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>800</v>
       </c>
       <c r="M10" s="3">
         <v>800</v>
       </c>
       <c r="N10" s="3">
+        <v>800</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>700</v>
       </c>
       <c r="T10" s="3">
         <v>700</v>
       </c>
       <c r="U10" s="3">
+        <v>700</v>
+      </c>
+      <c r="V10" s="3">
         <v>1000</v>
-      </c>
-      <c r="V10" s="3">
-        <v>700</v>
       </c>
       <c r="W10" s="3">
         <v>700</v>
       </c>
       <c r="X10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Y10" s="3">
         <v>400</v>
@@ -1030,19 +1040,22 @@
         <v>400</v>
       </c>
       <c r="AA10" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB10" s="3">
         <v>500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
-      <c r="AC10" s="3">
-        <v>100</v>
-      </c>
       <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1103,10 +1117,10 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,16 +1262,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1275,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>42</v>
@@ -1295,8 +1315,8 @@
       <c r="R14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,142 +1472,146 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E17" s="3">
         <v>5100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5200</v>
       </c>
       <c r="F17" s="3">
         <v>5200</v>
       </c>
       <c r="G17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H17" s="3">
         <v>5800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>3900</v>
       </c>
       <c r="U17" s="3">
         <v>3900</v>
       </c>
       <c r="V17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1400</v>
       </c>
       <c r="AC17" s="3">
         <v>1400</v>
       </c>
       <c r="AD17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>600</v>
       </c>
       <c r="F18" s="3">
         <v>600</v>
       </c>
       <c r="G18" s="3">
+        <v>600</v>
+      </c>
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
@@ -1589,17 +1619,17 @@
         <v>100</v>
       </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1607,19 +1637,22 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,11 +1717,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1748,82 +1785,85 @@
         <v>800</v>
       </c>
       <c r="F21" s="3">
+        <v>800</v>
+      </c>
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>300</v>
       </c>
       <c r="T21" s="3">
         <v>300</v>
       </c>
       <c r="U21" s="3">
+        <v>300</v>
+      </c>
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>100</v>
-      </c>
       <c r="Z21" s="3">
         <v>100</v>
       </c>
       <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
-      <c r="AB21" s="3">
-        <v>100</v>
-      </c>
       <c r="AC21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1836,14 +1876,14 @@
       <c r="F22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>42</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>42</v>
@@ -1857,8 +1897,8 @@
       <c r="M22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1920,87 +1963,90 @@
         <v>700</v>
       </c>
       <c r="F23" s="3">
+        <v>700</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>200</v>
       </c>
       <c r="U23" s="3">
+        <v>200</v>
+      </c>
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
       <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -2009,7 +2055,7 @@
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -2018,20 +2064,20 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2178,82 +2230,85 @@
         <v>500</v>
       </c>
       <c r="F26" s="3">
+        <v>500</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>200</v>
       </c>
       <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2264,82 +2319,85 @@
         <v>500</v>
       </c>
       <c r="F27" s="3">
+        <v>500</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2715,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -2780,82 +2853,85 @@
         <v>500</v>
       </c>
       <c r="F33" s="3">
+        <v>500</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2952,173 +3031,179 @@
         <v>500</v>
       </c>
       <c r="F35" s="3">
+        <v>500</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1800</v>
       </c>
       <c r="Q41" s="3">
         <v>1800</v>
       </c>
       <c r="R41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3278,8 +3368,8 @@
       <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>42</v>
+      <c r="F42" s="3">
+        <v>1000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>42</v>
@@ -3296,8 +3386,8 @@
       <c r="K42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3353,49 +3443,52 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
         <v>900</v>
       </c>
       <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>800</v>
       </c>
       <c r="I43" s="3">
+        <v>800</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>400</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
@@ -3404,159 +3497,165 @@
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>800</v>
-      </c>
-      <c r="X43" s="3">
-        <v>300</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
       <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1200</v>
       </c>
       <c r="N44" s="3">
         <v>1200</v>
       </c>
       <c r="O44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
@@ -3564,11 +3663,11 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
@@ -3582,19 +3681,19 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3603,102 +3702,108 @@
         <v>100</v>
       </c>
       <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
-      <c r="AC45" s="3">
-        <v>100</v>
-      </c>
       <c r="AD45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3708,8 +3813,8 @@
       <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>42</v>
+      <c r="F47" s="3">
+        <v>1000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>42</v>
@@ -3726,8 +3831,8 @@
       <c r="K47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3783,22 +3888,25 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2400</v>
       </c>
       <c r="H48" s="3">
         <v>2400</v>
@@ -3807,58 +3915,58 @@
         <v>2400</v>
       </c>
       <c r="J48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K48" s="3">
         <v>2500</v>
       </c>
       <c r="L48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2400</v>
       </c>
       <c r="Q48" s="3">
         <v>2400</v>
       </c>
       <c r="R48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>2100</v>
       </c>
       <c r="AB48" s="3">
         <v>2100</v>
@@ -3867,10 +3975,13 @@
         <v>2100</v>
       </c>
       <c r="AD48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AE48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3946,17 +4057,20 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AC49" s="3">
-        <v>0</v>
-      </c>
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4136,35 +4256,35 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>800</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
       </c>
       <c r="K52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
       <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
@@ -4199,7 +4319,7 @@
         <v>100</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E54" s="3">
         <v>12900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,25 +4579,26 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -4476,67 +4607,70 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>400</v>
       </c>
       <c r="AB57" s="3">
         <v>400</v>
       </c>
       <c r="AC57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD57" s="3">
         <v>200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4568,17 +4702,17 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
@@ -4595,19 +4729,19 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
       </c>
       <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z58" s="3">
         <v>400</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>300</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
@@ -4621,180 +4755,189 @@
       <c r="AD58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2200</v>
       </c>
       <c r="J59" s="3">
         <v>2200</v>
       </c>
       <c r="K59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2500</v>
       </c>
       <c r="I60" s="3">
         <v>2500</v>
       </c>
       <c r="J60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3800</v>
       </c>
       <c r="T60" s="3">
         <v>3800</v>
       </c>
       <c r="U60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V60" s="3">
         <v>4000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4805,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -4817,7 +4960,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -4826,17 +4969,17 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>100</v>
-      </c>
       <c r="Q61" s="3">
         <v>100</v>
       </c>
@@ -4853,7 +4996,7 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>200</v>
@@ -4865,10 +5008,10 @@
         <v>200</v>
       </c>
       <c r="Z61" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA61" s="3">
         <v>300</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>400</v>
       </c>
       <c r="AB61" s="3">
         <v>400</v>
@@ -4877,10 +5020,13 @@
         <v>400</v>
       </c>
       <c r="AD61" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4894,7 +5040,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -4906,7 +5052,7 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
@@ -4921,7 +5067,7 @@
         <v>300</v>
       </c>
       <c r="P62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
@@ -4933,10 +5079,10 @@
         <v>400</v>
       </c>
       <c r="T62" s="3">
+        <v>400</v>
+      </c>
+      <c r="U62" s="3">
         <v>500</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>42</v>
@@ -4944,8 +5090,8 @@
       <c r="W62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2500</v>
       </c>
       <c r="N66" s="3">
         <v>2500</v>
       </c>
       <c r="O66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5537,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>500</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,49 +5856,52 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-9100</v>
       </c>
       <c r="O72" s="3">
         <v>-9100</v>
       </c>
       <c r="P72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="Q72" s="3">
         <v>-9200</v>
@@ -5739,40 +5913,43 @@
         <v>-9200</v>
       </c>
       <c r="T72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-9400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-10500</v>
       </c>
       <c r="Z72" s="3">
         <v>-10500</v>
       </c>
       <c r="AA72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>-10500</v>
       </c>
       <c r="AC72" s="3">
         <v>-10500</v>
       </c>
       <c r="AD72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E76" s="3">
         <v>9300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>1900</v>
       </c>
       <c r="AA76" s="3">
         <v>1900</v>
       </c>
       <c r="AB76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="AC76" s="3">
         <v>1800</v>
       </c>
       <c r="AD76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AE76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -6304,82 +6499,85 @@
         <v>500</v>
       </c>
       <c r="F81" s="3">
+        <v>500</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
       <c r="AA81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,28 +7152,28 @@
         <v>700</v>
       </c>
       <c r="E89" s="3">
+        <v>700</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>500</v>
       </c>
       <c r="M89" s="3">
         <v>500</v>
@@ -6965,55 +7182,58 @@
         <v>500</v>
       </c>
       <c r="O89" s="3">
+        <v>500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>200</v>
       </c>
       <c r="Q89" s="3">
         <v>200</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1300</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
-      <c r="AB89" s="3">
-        <v>100</v>
-      </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,22 +7264,23 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -7071,50 +7292,50 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
@@ -7122,16 +7343,19 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7311,13 +7541,13 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -7326,53 +7556,53 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -7380,16 +7610,19 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7785,17 +8031,17 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7803,11 +8049,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7815,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
@@ -7842,16 +8088,19 @@
         <v>-100</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>500</v>
       </c>
       <c r="K102" s="3">
         <v>500</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCIA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SCIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="E8" s="3">
-        <v>5800</v>
+        <v>13300</v>
       </c>
       <c r="F8" s="3">
         <v>5800</v>
@@ -805,236 +809,242 @@
         <v>5800</v>
       </c>
       <c r="H8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I8" s="3">
         <v>6500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E9" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F9" s="3">
         <v>4500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4600</v>
       </c>
       <c r="G9" s="3">
         <v>4600</v>
       </c>
       <c r="H9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I9" s="3">
         <v>5100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>3300</v>
       </c>
       <c r="V9" s="3">
         <v>3300</v>
       </c>
       <c r="W9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X9" s="3">
         <v>2000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1200</v>
       </c>
       <c r="G10" s="3">
         <v>1200</v>
       </c>
       <c r="H10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>800</v>
       </c>
       <c r="N10" s="3">
         <v>800</v>
       </c>
       <c r="O10" s="3">
+        <v>800</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
-      </c>
-      <c r="T10" s="3">
-        <v>700</v>
       </c>
       <c r="U10" s="3">
         <v>700</v>
       </c>
       <c r="V10" s="3">
+        <v>700</v>
+      </c>
+      <c r="W10" s="3">
         <v>1000</v>
-      </c>
-      <c r="W10" s="3">
-        <v>700</v>
       </c>
       <c r="X10" s="3">
         <v>700</v>
       </c>
       <c r="Y10" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Z10" s="3">
         <v>400</v>
@@ -1043,19 +1053,22 @@
         <v>400</v>
       </c>
       <c r="AB10" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC10" s="3">
         <v>500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>400</v>
       </c>
-      <c r="AD10" s="3">
-        <v>100</v>
-      </c>
       <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1120,10 +1134,10 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1276,8 +1296,8 @@
       <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1298,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>42</v>
@@ -1318,8 +1338,8 @@
       <c r="S14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,148 +1499,152 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F17" s="3">
         <v>5100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5200</v>
       </c>
       <c r="G17" s="3">
         <v>5200</v>
       </c>
       <c r="H17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I17" s="3">
         <v>5800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3900</v>
       </c>
       <c r="V17" s="3">
         <v>3900</v>
       </c>
       <c r="W17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>1400</v>
       </c>
       <c r="AD17" s="3">
         <v>1400</v>
       </c>
       <c r="AE17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AF17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>600</v>
       </c>
       <c r="G18" s="3">
         <v>600</v>
       </c>
       <c r="H18" s="3">
+        <v>600</v>
+      </c>
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
       <c r="T18" s="3">
         <v>100</v>
       </c>
@@ -1622,17 +1652,17 @@
         <v>100</v>
       </c>
       <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
@@ -1640,19 +1670,22 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,16 +1717,17 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1720,11 +1754,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1773,97 +1807,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E21" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F21" s="3">
         <v>800</v>
       </c>
       <c r="G21" s="3">
+        <v>800</v>
+      </c>
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>300</v>
       </c>
       <c r="U21" s="3">
         <v>300</v>
       </c>
       <c r="V21" s="3">
+        <v>300</v>
+      </c>
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
       <c r="AA21" s="3">
         <v>100</v>
       </c>
       <c r="AB21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
-      <c r="AC21" s="3">
-        <v>100</v>
-      </c>
       <c r="AD21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
-      <c r="AE21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1879,14 +1919,14 @@
       <c r="G22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>42</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>42</v>
@@ -1900,8 +1940,8 @@
       <c r="N22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1951,105 +1991,111 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E23" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="F23" s="3">
         <v>700</v>
       </c>
       <c r="G23" s="3">
+        <v>700</v>
+      </c>
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>200</v>
       </c>
       <c r="V23" s="3">
+        <v>200</v>
+      </c>
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -2058,7 +2104,7 @@
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -2067,20 +2113,20 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="3">
         <v>500</v>
       </c>
       <c r="G26" s="3">
+        <v>500</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>200</v>
       </c>
       <c r="V26" s="3">
+        <v>200</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E27" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="3">
         <v>500</v>
       </c>
       <c r="G27" s="3">
+        <v>500</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
       <c r="AB27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2752,16 +2819,19 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2788,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E33" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="3">
         <v>500</v>
       </c>
       <c r="G33" s="3">
+        <v>500</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>100</v>
-      </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
       <c r="AB33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="3">
         <v>500</v>
       </c>
       <c r="G35" s="3">
+        <v>500</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>100</v>
-      </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
       <c r="AB35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1800</v>
       </c>
       <c r="R41" s="3">
         <v>1800</v>
       </c>
       <c r="S41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3371,8 +3461,8 @@
       <c r="F42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>42</v>
+      <c r="G42" s="3">
+        <v>1000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>42</v>
@@ -3389,8 +3479,8 @@
       <c r="L42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3446,52 +3536,55 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>900</v>
       </c>
       <c r="G43" s="3">
+        <v>900</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>800</v>
       </c>
       <c r="I43" s="3">
         <v>800</v>
       </c>
       <c r="J43" s="3">
+        <v>800</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
       </c>
       <c r="Q43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
@@ -3500,165 +3593,171 @@
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>800</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>300</v>
       </c>
       <c r="Z43" s="3">
         <v>300</v>
       </c>
       <c r="AA43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1200</v>
       </c>
       <c r="O44" s="3">
         <v>1200</v>
       </c>
       <c r="P44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
@@ -3666,11 +3765,11 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
@@ -3684,19 +3783,19 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
-      </c>
-      <c r="X45" s="3">
-        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
@@ -3705,105 +3804,111 @@
         <v>100</v>
       </c>
       <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
-      <c r="AD45" s="3">
-        <v>100</v>
-      </c>
       <c r="AE45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E46" s="3">
         <v>9000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3816,8 +3921,8 @@
       <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>42</v>
+      <c r="G47" s="3">
+        <v>1000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>42</v>
@@ -3834,8 +3939,8 @@
       <c r="L47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3900,16 +4008,16 @@
         <v>2400</v>
       </c>
       <c r="E48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2400</v>
       </c>
       <c r="I48" s="3">
         <v>2400</v>
@@ -3918,58 +4026,58 @@
         <v>2400</v>
       </c>
       <c r="K48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L48" s="3">
         <v>2500</v>
       </c>
       <c r="M48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2400</v>
       </c>
       <c r="R48" s="3">
         <v>2400</v>
       </c>
       <c r="S48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2000</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>2100</v>
       </c>
       <c r="AC48" s="3">
         <v>2100</v>
@@ -3978,10 +4086,13 @@
         <v>2100</v>
       </c>
       <c r="AE48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AF48" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -4060,17 +4171,20 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD49" s="3">
-        <v>0</v>
-      </c>
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4259,35 +4379,35 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
       </c>
       <c r="L52" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>1000</v>
       </c>
       <c r="N52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
-        <v>100</v>
-      </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
@@ -4322,7 +4442,7 @@
         <v>100</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E54" s="3">
         <v>12500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,19 +4720,19 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -4610,67 +4741,70 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>400</v>
       </c>
       <c r="AC57" s="3">
         <v>400</v>
       </c>
       <c r="AD57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE57" s="3">
         <v>200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4705,17 +4839,17 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
@@ -4732,19 +4866,19 @@
         <v>100</v>
       </c>
       <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
       </c>
       <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA58" s="3">
         <v>400</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>300</v>
       </c>
       <c r="AB58" s="3">
         <v>300</v>
@@ -4758,186 +4892,195 @@
       <c r="AE58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2200</v>
       </c>
       <c r="K59" s="3">
         <v>2200</v>
       </c>
       <c r="L59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2500</v>
       </c>
       <c r="J60" s="3">
         <v>2500</v>
       </c>
       <c r="K60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>3800</v>
       </c>
       <c r="U60" s="3">
         <v>3800</v>
       </c>
       <c r="V60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W60" s="3">
         <v>4000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4951,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -4963,7 +5106,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -4972,17 +5115,17 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>100</v>
-      </c>
       <c r="R61" s="3">
         <v>100</v>
       </c>
@@ -4999,7 +5142,7 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>200</v>
@@ -5011,10 +5154,10 @@
         <v>200</v>
       </c>
       <c r="AA61" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB61" s="3">
         <v>300</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>400</v>
       </c>
       <c r="AC61" s="3">
         <v>400</v>
@@ -5023,15 +5166,18 @@
         <v>400</v>
       </c>
       <c r="AE61" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -5043,7 +5189,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -5055,7 +5201,7 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -5070,7 +5216,7 @@
         <v>300</v>
       </c>
       <c r="Q62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
@@ -5082,10 +5228,10 @@
         <v>400</v>
       </c>
       <c r="U62" s="3">
+        <v>400</v>
+      </c>
+      <c r="V62" s="3">
         <v>500</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>42</v>
@@ -5093,8 +5239,8 @@
       <c r="X62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2500</v>
       </c>
       <c r="O66" s="3">
         <v>2500</v>
       </c>
       <c r="P66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5708,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>500</v>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,52 +6030,55 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-9100</v>
       </c>
       <c r="P72" s="3">
         <v>-9100</v>
       </c>
       <c r="Q72" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="R72" s="3">
         <v>-9200</v>
@@ -5916,40 +6090,43 @@
         <v>-9200</v>
       </c>
       <c r="U72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-9400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-10500</v>
       </c>
       <c r="AA72" s="3">
         <v>-10500</v>
       </c>
       <c r="AB72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>-10500</v>
       </c>
       <c r="AD72" s="3">
         <v>-10500</v>
       </c>
       <c r="AE72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E76" s="3">
         <v>9800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>1900</v>
       </c>
       <c r="AB76" s="3">
         <v>1900</v>
       </c>
       <c r="AC76" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="AD76" s="3">
         <v>1800</v>
       </c>
       <c r="AE76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AF76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E81" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F81" s="3">
         <v>500</v>
       </c>
       <c r="G81" s="3">
+        <v>500</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>100</v>
-      </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
       <c r="AB81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6618,7 +6817,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,40 +7357,43 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
-        <v>700</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
-      </c>
-      <c r="M89" s="3">
-        <v>500</v>
       </c>
       <c r="N89" s="3">
         <v>500</v>
@@ -7185,55 +7402,58 @@
         <v>500</v>
       </c>
       <c r="P89" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>200</v>
       </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1300</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>300</v>
       </c>
-      <c r="AC89" s="3">
-        <v>100</v>
-      </c>
       <c r="AD89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,25 +7485,26 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -7295,50 +7516,50 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
@@ -7346,16 +7567,19 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,25 +7759,28 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -7559,53 +7789,53 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
@@ -7613,16 +7843,19 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8034,17 +8280,17 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -8052,11 +8298,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -8064,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
@@ -8091,16 +8337,19 @@
         <v>-100</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>500</v>
       </c>
       <c r="L102" s="3">
         <v>500</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
